--- a/biology/Zoologie/Asterophila/Asterophila.xlsx
+++ b/biology/Zoologie/Asterophila/Asterophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asterophila est un genre de mollusques gastéropodes de la famille Eulimidae. Les espèces rangées dans ce genre sont marines et parasitent des échinodermes ; l'espèce type est Asterophila japonica[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterophila est un genre de mollusques gastéropodes de la famille Eulimidae. Les espèces rangées dans ce genre sont marines et parasitent des échinodermes ; l'espèce type est Asterophila japonica.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines des espèces se rencontrent dans l'océan Atlantique et dans l'océan Pacifique, notamment au niveau de la fosse des Kermadec ; Asterophila perknasteri est présente en mer de Scotia, dans le cercle Antarctique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines des espèces se rencontrent dans l'océan Atlantique et dans l'océan Pacifique, notamment au niveau de la fosse des Kermadec ; Asterophila perknasteri est présente en mer de Scotia, dans le cercle Antarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. perknasteri parasite les étoiles de mer du genre Perknaster ; A. rathbunasteri se trouve sur l'étoile de mer Rathbunaster californicus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. perknasteri parasite les étoiles de mer du genre Perknaster ; A. rathbunasteri se trouve sur l'étoile de mer Rathbunaster californicus.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 août 2017)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 août 2017) :
 Asterophila japonica Randall &amp; Heath, 1912 espèce type
 Asterophila perknasteri Warén in Warén &amp; Lewis, 1994
 Asterophila rathbunasteri Warén in Warén &amp; Lewis, 1994</t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Josephine Randall et Q3127609, « Asterophila, a new genus of parasitic gastropods », The Biological Bulletin, Woods Hole, Laboratoire de biologie marine et University of Chicago Press, vol. 22, no 2,‎ janvier 1912, p. 98-105 (ISSN 0006-3185 et 1939-8697, OCLC 1536426, DOI 10.2307/1536172)</t>
         </is>
